--- a/Approximationen/CHP Kosten.xlsx
+++ b/Approximationen/CHP Kosten.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="148" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{D537E9CD-E09A-4E7D-AD2F-15A1C3E73EF3}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{7E64EDED-FD96-44C9-A3E7-5A96EF4D7CB3}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diagramm" sheetId="2" r:id="rId1"/>
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,6 +19,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -473,7 +474,37 @@
             <c:backward val="10"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -601,7 +632,37 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="144"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1723,7 +1784,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5D8AEF1D-F368-4300-A96D-FDD0866FEBA5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -2030,7 +2091,7 @@
   <dimension ref="A3:F26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Approximationen/CHP Kosten.xlsx
+++ b/Approximationen/CHP Kosten.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="153" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{7E64EDED-FD96-44C9-A3E7-5A96EF4D7CB3}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="11_AD4DB114E44117BA4C33AC715191D634693EDF37" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{4F8FE69E-E1CB-4C3A-9756-5C39D089E8E0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -251,7 +251,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="8"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -370,7 +370,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="triangle"/>
-            <c:size val="8"/>
+            <c:size val="10"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="92D050"/>
@@ -462,7 +462,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
@@ -474,37 +474,7 @@
             <c:backward val="10"/>
             <c:intercept val="0"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -621,7 +591,7 @@
           </c:marker>
           <c:trendline>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
@@ -632,37 +602,7 @@
             <c:trendlineType val="linear"/>
             <c:intercept val="144"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -762,7 +702,7 @@
           <c:trendline>
             <c:name>Regression</c:name>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:ln w="38100" cap="rnd">
                 <a:solidFill>
                   <a:srgbClr val="C00000"/>
                 </a:solidFill>
@@ -884,7 +824,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -894,7 +834,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1500" b="1">
+                  <a:rPr lang="en-GB" sz="1800" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -902,14 +842,14 @@
                   <a:t>elektrische</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1500" b="1" baseline="0">
+                  <a:rPr lang="en-GB" sz="1800" b="1" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t> Nennleistung [MW]</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB" sz="1500" b="1">
+                <a:endParaRPr lang="en-GB" sz="1800" b="1">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -930,7 +870,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -945,7 +885,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -962,7 +902,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1023,7 +963,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1033,7 +973,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1500" b="1">
+                  <a:rPr lang="en-GB" sz="1800" b="1">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
@@ -1041,14 +981,14 @@
                   <a:t>Investitionskosten</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" sz="1500" b="1" baseline="0">
+                  <a:rPr lang="en-GB" sz="1800" b="1" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
                   <a:t> [Tsd. €]</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB" sz="1500" b="1">
+                <a:endParaRPr lang="en-GB" sz="1800" b="1">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1069,7 +1009,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
@@ -1084,7 +1024,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1101,7 +1041,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1120,7 +1060,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="12700">
+        <a:ln w="25400">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -1154,10 +1094,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15915465237753884"/>
-          <c:y val="9.0618694996159294E-2"/>
-          <c:w val="0.18946509884831442"/>
-          <c:h val="0.19402308044827729"/>
+          <c:x val="0.13186693831175528"/>
+          <c:y val="7.1623014931266729E-2"/>
+          <c:w val="0.20583776239162271"/>
+          <c:h val="0.19191241333968848"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1177,7 +1117,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -1784,10 +1724,10 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5D8AEF1D-F368-4300-A96D-FDD0866FEBA5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </chartsheet>
 </file>
@@ -1796,7 +1736,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305925" cy="6010275"/>
+    <xdr:ext cx="9301370" cy="6013174"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
